--- a/medicine/Mort/Néonaticide/Néonaticide.xlsx
+++ b/medicine/Mort/Néonaticide/Néonaticide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9onaticide</t>
+          <t>Néonaticide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le néonaticide désigne un homicide  commis sur un nouveau-né
-Ce crime, souvent classé parmi les formes de violence domestique ou intrafamiliale[1],[2], mais aussi parmi les troubles du lien et de l'accueil (dénis de grossesse, néonaticides, naissances sous X, abandons) dont il est la forme la plus extrême[3], est commis presque exclusivement par la mère de l'enfant[4].
+Ce crime, souvent classé parmi les formes de violence domestique ou intrafamiliale mais aussi parmi les troubles du lien et de l'accueil (dénis de grossesse, néonaticides, naissances sous X, abandons) dont il est la forme la plus extrême, est commis presque exclusivement par la mère de l'enfant.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9onaticide</t>
+          <t>Néonaticide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Droit canadien
-En droit canadien, si l'enfant est déjà entièrement né et qu'on lui a coupé le cordon ombilical, l'infraction applicable peut être l'infanticide (art. 233 C.cr.[5]) si la mère tue le nouveau-né et que son esprit est déséquilibré. L'infanticide est une infraction distincte du meurtre qui entraîne une peine moins lourde. Par contre, si une autre personne que la mère commet un néonaticide, par exemple le conjoint de la mère, alors l'infraction applicable est en principe l'infraction de meurtre (art. 229 C.cr.[6]). Cela dit, le mot néonaticide n'est pas juridique car il n'est pas inscrit au Code criminel, mais le Code criminel prévoit des situations factuelles de néonaticide qui sont englobées sous l'infraction d'infanticide lorsque la mère a temporairement un esprit déséquilibré; d'autres infractions criminelles plus sévères s'appliquent lorsque la personne qui commet le crime ne remplit pas les critères de la disposition sur l'infanticide.
-On observe depuis quelque temps une tendance chez les procureurs de la poursuite d'accuser les mères qui tuent des nouveau-nés d'homicide involontaire coupable (HIC) plutôt que d'infanticide, notamment car l'HIC entraîne souvent une peine bien plus sévère que l'infanticide, parce que les procureurs de la poursuite ne sont pas obligés de choisir chaque fois le même chef d'accusation et puisque la disposition sur l'infanticide laisse entendre qu'elle n'est applicable qu'aux mères dont l'esprit est temporairement perturbé et qu'elle ne vaut pas pour celles dont l'esprit ne l'est pas[7].
-Un fœtus dont le cordon ombilical n'est pas encore coupé n'est pas considéré comme un être humain par le Code criminel. Lors de l'accouchement, tuer un fœtus dans de telles circonstances n'est ni un meurtre, ni un infanticide, mais cela entre dans le cadre d'une infraction séparée appelée le « fait de tuer, au cours de la mise au monde, un enfant non encore né » à l'article 238 C.cr.[8]. Cette infraction distincte de tuer un enfant pendant la mise au monde entraîne toutefois une peine d'emprisonnement à perpétuité, comme s'il s'agissait d'un meurtre.
+          <t>Droit canadien</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit canadien, si l'enfant est déjà entièrement né et qu'on lui a coupé le cordon ombilical, l'infraction applicable peut être l'infanticide (art. 233 C.cr.) si la mère tue le nouveau-né et que son esprit est déséquilibré. L'infanticide est une infraction distincte du meurtre qui entraîne une peine moins lourde. Par contre, si une autre personne que la mère commet un néonaticide, par exemple le conjoint de la mère, alors l'infraction applicable est en principe l'infraction de meurtre (art. 229 C.cr.). Cela dit, le mot néonaticide n'est pas juridique car il n'est pas inscrit au Code criminel, mais le Code criminel prévoit des situations factuelles de néonaticide qui sont englobées sous l'infraction d'infanticide lorsque la mère a temporairement un esprit déséquilibré; d'autres infractions criminelles plus sévères s'appliquent lorsque la personne qui commet le crime ne remplit pas les critères de la disposition sur l'infanticide.
+On observe depuis quelque temps une tendance chez les procureurs de la poursuite d'accuser les mères qui tuent des nouveau-nés d'homicide involontaire coupable (HIC) plutôt que d'infanticide, notamment car l'HIC entraîne souvent une peine bien plus sévère que l'infanticide, parce que les procureurs de la poursuite ne sont pas obligés de choisir chaque fois le même chef d'accusation et puisque la disposition sur l'infanticide laisse entendre qu'elle n'est applicable qu'aux mères dont l'esprit est temporairement perturbé et qu'elle ne vaut pas pour celles dont l'esprit ne l'est pas.
+Un fœtus dont le cordon ombilical n'est pas encore coupé n'est pas considéré comme un être humain par le Code criminel. Lors de l'accouchement, tuer un fœtus dans de telles circonstances n'est ni un meurtre, ni un infanticide, mais cela entre dans le cadre d'une infraction séparée appelée le « fait de tuer, au cours de la mise au monde, un enfant non encore né » à l'article 238 C.cr.. Cette infraction distincte de tuer un enfant pendant la mise au monde entraîne toutefois une peine d'emprisonnement à perpétuité, comme s'il s'agissait d'un meurtre.
 </t>
         </is>
       </c>
